--- a/requisitos/Especificação do Sistema.xlsx
+++ b/requisitos/Especificação do Sistema.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Projeto-Smart-Sales\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Requisito</t>
   </si>
@@ -80,36 +80,9 @@
     <t>RF14</t>
   </si>
   <si>
-    <t>manter o cadastramento de clientes(inclusão, alteração, exclusão, consulta)</t>
-  </si>
-  <si>
-    <t>manter o cadastramento de produtos(inclusão, alteração, exclusão, consulta)</t>
-  </si>
-  <si>
-    <t>tem cadastramento de vendedores? Sim</t>
-  </si>
-  <si>
-    <t>gerenciar as vendas realizadas</t>
-  </si>
-  <si>
-    <t>controlar acesso com login e senha</t>
-  </si>
-  <si>
-    <t>imitir relatórios de vendas por data</t>
-  </si>
-  <si>
-    <t>imitir relatórios de produtos mais vendidos por mês</t>
-  </si>
-  <si>
-    <t>informar quando atingir ponto de compra na tela inicial do sistema</t>
-  </si>
-  <si>
     <t>Usuário</t>
   </si>
   <si>
-    <t>Fazer Venda</t>
-  </si>
-  <si>
     <t>Manter Cliente</t>
   </si>
   <si>
@@ -119,15 +92,9 @@
     <t>Manter Vendedores</t>
   </si>
   <si>
-    <t>gerenciar estoque de entrada e saída produtos</t>
-  </si>
-  <si>
     <t>SMART SALES - IDENTIFICAÇÃO DE REQUISISTOS E CASO DE USO</t>
   </si>
   <si>
-    <t>Imprimir relatório</t>
-  </si>
-  <si>
     <t>Gerenciar estoque</t>
   </si>
   <si>
@@ -143,39 +110,12 @@
     <t>Autenticar Usuário</t>
   </si>
   <si>
-    <t>Servidor do sistema</t>
-  </si>
-  <si>
-    <t>Enviar ao usuário a informação do estoque do produto baixo</t>
-  </si>
-  <si>
     <t>Gerer ID único</t>
   </si>
   <si>
     <t>Mostrar total de vendas do dia anterior ao abrir o sistema pela primeira vez</t>
   </si>
   <si>
-    <t>RF15</t>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>RF18</t>
-  </si>
-  <si>
-    <t>RF19</t>
-  </si>
-  <si>
-    <t>Validar Vendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servidor do Sistema </t>
-  </si>
-  <si>
     <t>Em qualquer tipo de venda será obrigatório o preenchimento do cliente que esta realizando a compra, e o vendedor.</t>
   </si>
   <si>
@@ -186,12 +126,84 @@
   </si>
   <si>
     <t>Mostrar Vendas do dia Anterior</t>
+  </si>
+  <si>
+    <t>Manter o cadastramento de clientes(inclusão, alteração, exclusão, consulta)</t>
+  </si>
+  <si>
+    <t>Manter o cadastramento de produtos(inclusão, alteração, exclusão, consulta)</t>
+  </si>
+  <si>
+    <t>Tem cadastramento de vendedores? Sim</t>
+  </si>
+  <si>
+    <t>Gerenciar as vendas realizadas</t>
+  </si>
+  <si>
+    <t>Controlar acesso com login e senha</t>
+  </si>
+  <si>
+    <t>Gerenciar estoque de entrada e saída produtos</t>
+  </si>
+  <si>
+    <t>Emitir relatórios de vendas por data</t>
+  </si>
+  <si>
+    <t>Informar quando atingir ponto de compra na tela inicial do sistema</t>
+  </si>
+  <si>
+    <t>Realizar Venda                                            Ver Vendedores                                      Ver Clientes                                                  Ver Produtos</t>
+  </si>
+  <si>
+    <t>Nome do UC</t>
+  </si>
+  <si>
+    <t>ATOR(ES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar Venda                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ver Produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Clientes          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Vendedores       </t>
+  </si>
+  <si>
+    <t>UC#</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Imprimir relatório de Vendas</t>
+  </si>
+  <si>
+    <t>Imprimir relatório de Produtos</t>
+  </si>
+  <si>
+    <t>Emitir relatórios de produtos mais vendidos por agrupamento mês</t>
+  </si>
+  <si>
+    <t>Validar Campos Preenchidos</t>
+  </si>
+  <si>
+    <t>Consulta Estoque                                                    Gerenciar estoque</t>
+  </si>
+  <si>
+    <t>Consultar Estoque</t>
+  </si>
+  <si>
+    <t>Informar Estoque baixo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,12 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -243,6 +252,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,12 +588,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -592,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,27 +642,27 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,27 +670,27 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,122 +712,309 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/requisitos/Especificação do Sistema.xlsx
+++ b/requisitos/Especificação do Sistema.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Projeto-Smart-Sales\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno.Aluno-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Requisito</t>
   </si>
@@ -74,15 +74,6 @@
     <t>RF12</t>
   </si>
   <si>
-    <t>RF13</t>
-  </si>
-  <si>
-    <t>RF14</t>
-  </si>
-  <si>
-    <t>Usuário</t>
-  </si>
-  <si>
     <t>Manter Cliente</t>
   </si>
   <si>
@@ -98,27 +89,15 @@
     <t>Gerenciar estoque</t>
   </si>
   <si>
-    <t>O sistema permitirá fazer vendas condicionais gerando código para os mesmos, que posteriormente podem ser recuperados e passarem para venda fechada.</t>
-  </si>
-  <si>
     <t>No momento de efetuar alguma venda será necessário selecionar produtos. O sistema permitirá selecionar somente produtos que estejam em estoque e disponíveis para venda e a quantidade disponível em estoque</t>
   </si>
   <si>
     <t>Permitir cancelamento de vendas já fechadas? Sim</t>
   </si>
   <si>
-    <t>Autenticar Usuário</t>
-  </si>
-  <si>
-    <t>Gerer ID único</t>
-  </si>
-  <si>
     <t>Mostrar total de vendas do dia anterior ao abrir o sistema pela primeira vez</t>
   </si>
   <si>
-    <t>Em qualquer tipo de venda será obrigatório o preenchimento do cliente que esta realizando a compra, e o vendedor.</t>
-  </si>
-  <si>
     <t>Validar estoque</t>
   </si>
   <si>
@@ -188,22 +167,31 @@
     <t>Emitir relatórios de produtos mais vendidos por agrupamento mês</t>
   </si>
   <si>
-    <t>Validar Campos Preenchidos</t>
-  </si>
-  <si>
-    <t>Consulta Estoque                                                    Gerenciar estoque</t>
-  </si>
-  <si>
-    <t>Consultar Estoque</t>
-  </si>
-  <si>
     <t>Informar Estoque baixo</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Autenticar Gerente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gerenciar estoque</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Gerente /Vendedor</t>
+  </si>
+  <si>
+    <t>Gerente/Vendedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,15 +244,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,26 +562,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -614,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,13 +616,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -656,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,27 +658,27 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +686,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,13 +700,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,296 +714,240 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
+      <c r="C18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>5</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
